--- a/ppplca/stubs/value_chains.xlsx
+++ b/ppplca/stubs/value_chains.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arminsi\polybox - Armin Siegrist\ETH working folder\Parametric_LCA_plant_proteins_final\Data input\value_chains_and_processing_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arminsi\polybox - Armin Siegrist\ETH working folder\ppplca\ppplca\ppplca\stubs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E12B3-D607-4DD3-B7FC-0161B14DC5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E29FD95-474D-4F15-A776-F97CF432669F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5565" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5565" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Value_chains" sheetId="1" r:id="rId1"/>
-    <sheet name="Countries (don't change)" sheetId="2" r:id="rId2"/>
+    <sheet name="README" sheetId="3" r:id="rId1"/>
+    <sheet name="Value_chains" sheetId="1" r:id="rId2"/>
+    <sheet name="Countries (don't change)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t>Country</t>
   </si>
@@ -324,12 +325,6 @@
     <t>US</t>
   </si>
   <si>
-    <t>United States of America - US</t>
-  </si>
-  <si>
-    <t>China - CN</t>
-  </si>
-  <si>
     <t>Brazil - BR</t>
   </si>
   <si>
@@ -348,27 +343,6 @@
     <t>Switzerland - CH</t>
   </si>
   <si>
-    <t>SPC</t>
-  </si>
-  <si>
-    <t>PPI</t>
-  </si>
-  <si>
-    <t>PPC</t>
-  </si>
-  <si>
-    <t>gluten</t>
-  </si>
-  <si>
-    <t>Netherlands, Kingdom of the - NL</t>
-  </si>
-  <si>
-    <t>Germany - DE</t>
-  </si>
-  <si>
-    <t>France - FR</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -403,13 +377,25 @@
   </si>
   <si>
     <t>pointofuse_country</t>
+  </si>
+  <si>
+    <t>Define the value chains for the analysis in the tab "Value_chains".</t>
+  </si>
+  <si>
+    <t>You can create them as shown in the example in line 1 using the drop-down lists.</t>
+  </si>
+  <si>
+    <t>Do not change the tab "Countries" it contains the countries that can be selected for the analysis.</t>
+  </si>
+  <si>
+    <t>If other countries are added without modifying the code, it could lead to errors.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,16 +415,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -446,14 +446,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,11 +822,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2541C5-EA29-4B44-A71E-133C52D783FE}">
+  <dimension ref="B2:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -759,630 +920,72 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>112</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40C934B-43BB-414D-BD36-5AD5A9A5F7AA}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
